--- a/data/trans_dic/P19_1_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P19_1_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se siente optimista con el futuro (en desacuerdo, muy en desacuerdo)</t>
+          <t>Población que se siente optimista con el futuro (en desacuerdo, muy en desacuerdo) (tasa de respuesta: 98,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,89%</t>
+          <t>77,19%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>81,43%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
+          <t>85,18%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>77,73%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>86,08%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>78,52%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>80,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>79,21%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>23,02%</t>
+          <t>84,7%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>87,39%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>77,92%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>80,83%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>81,98%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>81,28%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>86,79%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,43; 31,13</t>
+          <t>64,67; 84,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,77; 22,97</t>
+          <t>73,95; 87,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,95; 20,63</t>
+          <t>78,33; 90,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,59; 30,33</t>
+          <t>58,9; 86,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,18; 26,84</t>
+          <t>79,19; 90,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,05; 23,7</t>
+          <t>72,22; 83,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,25; 25,93</t>
+          <t>73,6; 85,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,91; 19,14</t>
+          <t>73,37; 84,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,85; 27,29</t>
+          <t>78,41; 89,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,65; 21,97</t>
+          <t>80,71; 92,11</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,03; 22,16</t>
+          <t>71,14; 82,15</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,88; 22,22</t>
+          <t>76,04; 84,7</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>77,55; 85,32</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>70,85; 86,09</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>81,91; 90,28</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>89,28%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>83,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>86,82%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>87,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>91,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>78,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>80,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>82,81%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>83,77%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>85,76%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>13,66%</t>
+          <t>83,5%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>82,23%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>84,78%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>85,6%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>88,63%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,76; 21,16</t>
+          <t>83,26; 94,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,76; 33,22</t>
+          <t>76,09; 88,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,09; 17,21</t>
+          <t>79,1; 92,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,98; 17,58</t>
+          <t>80,95; 92,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,57; 24,96</t>
+          <t>84,15; 96,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,06; 23,53</t>
+          <t>71,25; 83,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,84; 19,41</t>
+          <t>74,01; 86,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,67; 22,28</t>
+          <t>76,67; 87,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,22; 21,11</t>
+          <t>77,39; 88,69</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,5; 25,34</t>
+          <t>79,53; 90,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,81; 16,97</t>
+          <t>78,88; 87,6</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,25; 18,09</t>
+          <t>77,36; 86,09</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>79,81; 88,48</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>81,31; 89,53</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>84,48; 92,13</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>79,05%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>91,52%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>24,94%</t>
+          <t>63,46%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>89,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>66,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>83,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>68,79%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>76,46%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>13,66%</t>
+          <t>90,63%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>81,63%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>21,06%</t>
+          <t>81,33%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>80,16%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>69,89%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>89,91%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,66; 21,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,02; 21,86</t>
+          <t>60,11; 92,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,66; 22,75</t>
+          <t>76,7; 97,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,11; 50,35</t>
+          <t>25,12; 88,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,9; 41,74</t>
+          <t>73,53; 97,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,44; 25,88</t>
+          <t>48,62; 81,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,55; 37,67</t>
+          <t>68,03; 92,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,56; 28,58</t>
+          <t>52,17; 83,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,71; 27,39</t>
+          <t>59,32; 90,26</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,42; 20,59</t>
+          <t>78,08; 97,7</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,86; 25,91</t>
+          <t>70,13; 90,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,49; 35,96</t>
+          <t>68,44; 90,05</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>68,5; 88,91</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>46,21; 83,75</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>80,58; 95,57</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>84,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>82,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>86,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>80,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>88,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>77,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>80,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>79,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>83,49%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>87,08%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>80,56%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>81,46%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>82,94%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>81,87%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>87,88%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,21; 23,69</t>
+          <t>77,55; 88,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,16; 23,8</t>
+          <t>77,38; 86,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,3; 16,87</t>
+          <t>82,22; 89,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,34; 22,07</t>
+          <t>70,29; 86,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,52; 25,37</t>
+          <t>84,45; 92,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,41; 21,45</t>
+          <t>73,3; 81,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,09; 22,32</t>
+          <t>76,52; 84,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,58; 18,95</t>
+          <t>75,52; 83,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,99; 22,88</t>
+          <t>78,93; 86,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,15; 21,53</t>
+          <t>82,71; 90,15</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,67; 19,01</t>
+          <t>76,86; 83,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,57; 18,96</t>
+          <t>78,53; 84,48</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>79,76; 85,5</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>76,07; 85,49</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>85,12; 90,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se siente optimista con el futuro (en desacuerdo, muy en desacuerdo) (tasa de respuesta: 98,87%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>310.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>273786</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>344242</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>306257</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>294383</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>395773</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>336928</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>396471</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>330199</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>332266</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>478632</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>610715</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>740712</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>636456</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>626649</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>874405</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>229373; 298603</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>312633; 368456</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>281629; 324022</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>223066; 327273</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>364099; 418061</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>309904; 358073</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>363274; 420401</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>305864; 353385</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>307604; 351060</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>442052; 504455</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>557589; 643868</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>696757; 776134</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>602057; 662422</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>546250; 663782</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>825155; 909567</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>272061</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>301333</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>276372</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>278612</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>368024</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>270058</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>340443</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>273822</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>276329</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>368640</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>542120</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>641776</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>550194</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>554942</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>736664</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>253701; 286758</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>273451; 319728</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>251807; 293454</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>257770; 294657</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>337708; 386100</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>245450; 289005</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>311622; 363481</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>253518; 290727</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>255287; 292560</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>341862; 389784</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>512127; 568702</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>603770; 671908</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>517982; 574231</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>527164; 580463</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>702152; 765765</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>65821</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>80449</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>72855</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>52208</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>106551</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>53574</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>84602</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>54689</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>61575</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>100924</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>119396</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>165051</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>127544</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>113783</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>207474</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>61171; 94589</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>61055; 77817</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>20665; 72978</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>87789; 116483</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>39114; 65637</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>68824; 93674</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>41479; 66090</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>47775; 72696</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>86948; 108787</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>102573; 132054</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>138892; 182744</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>108983; 141467</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>75226; 136353</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>185947; 220521</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>272.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>303.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>313.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>322.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>343.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>563.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>562.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>570.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>583.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>615.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>611669</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>726024</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>655484</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>625203</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>870348</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>660561</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>821516</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>658710</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>670171</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>948195</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1272230</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1547539</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1314194</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1295374</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1818545</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>562386; 642014</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>683996; 762527</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>622781; 680827</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>547895; 675960</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>828064; 904135</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>626059; 695832</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>777316; 858189</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>624568; 687356</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>633602; 697875</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>900567; 981649</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1213877; 1315973</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1491768; 1604906</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1263715; 1354688</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1203591; 1352565</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1761446; 1870762</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
